--- a/03 Math/Linal 1 - матрицы/mmult.xlsx
+++ b/03 Math/Linal 1 - матрицы/mmult.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksetdekov\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B400C-6761-4DAB-950F-8ADDDE501F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67345F-338C-4981-BB93-C2E8A2C65F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{870F7814-2F53-4301-A223-FE0A1C7727A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{870F7814-2F53-4301-A223-FE0A1C7727A3}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="1" r:id="rId1"/>
     <sheet name="3" sheetId="2" r:id="rId2"/>
+    <sheet name="6" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="A">'3'!$A$5:$B$6</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>c</t>
   </si>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t>BA</t>
+  </si>
+  <si>
+    <t>m=2</t>
   </si>
 </sst>
 </file>
@@ -980,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AB926F-1273-44E2-BF9C-F64CF0891D3C}">
   <dimension ref="A4:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
@@ -1130,4 +1134,77 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D035214-8685-4694-84E1-343119A8C54D}">
+  <dimension ref="A3:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>-2</v>
+      </c>
+      <c r="D13">
+        <f>MDETERM(A12:B13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" cm="1">
+        <f t="array" ref="A15:B16">MMULT(A12:B13,A12:B13)</f>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>